--- a/content/data/Dataset_validacion_final.xlsx
+++ b/content/data/Dataset_validacion_final.xlsx
@@ -5,17 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Workspaces\GitHub\FLATCLASS\fake_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Workspaces\GitHub\FLATCLASS\content\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A049E8D-F44A-4A8F-9E6F-DA0984E0DD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D26F524-5315-45E4-81B2-85720C5A69B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14196" yWindow="5064" windowWidth="33792" windowHeight="21504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9072" yWindow="1656" windowWidth="37812" windowHeight="23652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -37,21 +50,6 @@
     <t>Anchura_px</t>
   </si>
   <si>
-    <t>L_av</t>
-  </si>
-  <si>
-    <t>A_av</t>
-  </si>
-  <si>
-    <t>errL_pct</t>
-  </si>
-  <si>
-    <t>errA_pct</t>
-  </si>
-  <si>
-    <t>exp</t>
-  </si>
-  <si>
     <t>peso_pred</t>
   </si>
   <si>
@@ -59,6 +57,21 @@
   </si>
   <si>
     <t>err_rel_peso</t>
+  </si>
+  <si>
+    <t>Longitud_av</t>
+  </si>
+  <si>
+    <t>Anchura_av</t>
+  </si>
+  <si>
+    <t>err_rel_Longitud</t>
+  </si>
+  <si>
+    <t>err_rel_Anchura</t>
+  </si>
+  <si>
+    <t>Experimento</t>
   </si>
 </sst>
 </file>
@@ -428,7 +441,7 @@
   <dimension ref="A1:M1251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,8 +451,9 @@
     <col min="6" max="6" width="18.21875" customWidth="1"/>
     <col min="7" max="7" width="15.44140625" customWidth="1"/>
     <col min="8" max="8" width="21.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="3"/>
-    <col min="11" max="11" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" style="3" customWidth="1"/>
     <col min="12" max="13" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -460,28 +474,28 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
